--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01_project\tools\py_excelToQrCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TRI-Data\project\tool\excelToQrCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DB9012-EB92-4542-88FA-94E75B861BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51F4622-A9FC-463D-AE47-D405337DFE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="651" xr2:uid="{80111D92-2995-40C6-8C26-8CAC1567ADF9}"/>
+    <workbookView xWindow="-21840" yWindow="2340" windowWidth="21600" windowHeight="11295" tabRatio="651" xr2:uid="{80111D92-2995-40C6-8C26-8CAC1567ADF9}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="27" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="569">
   <si>
     <t>HUỲNH NGỌC KHÁNH AN</t>
   </si>
@@ -1737,6 +1737,12 @@
   </si>
   <si>
     <t>dob</t>
+  </si>
+  <si>
+    <t>Vũ Lễ Mộng Hà</t>
+  </si>
+  <si>
+    <t>20/05/1999</t>
   </si>
 </sst>
 </file>
@@ -3201,10 +3207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BAB25D-68E6-48CA-853E-0E871CAAB103}">
-  <dimension ref="A1:C576"/>
+  <dimension ref="A1:C577"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A549" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E570" sqref="E570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9550,6 +9556,17 @@
         <v>41662</v>
       </c>
     </row>
+    <row r="577" spans="1:3" ht="16.5">
+      <c r="A577" s="2">
+        <v>576</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
